--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/metzlerj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70C815F-1A2F-3042-A833-5A2886DF66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ACC4D4-F321-C24D-B3AC-076139498217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{F3B74858-D064-0E41-BAF5-BF0AADD354A9}"/>
+    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F3B74858-D064-0E41-BAF5-BF0AADD354A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -383,6 +384,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD27173D-0397-514E-9FA2-EC130B1C468D}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD1F88-2C6F-9C45-AC46-F2F29A9B2CE0}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
